--- a/pred_ohlcv/54_21/2020-01-11 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-3133076.580299999</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-3861098.841899999</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>-5420309.967499999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>-6661288.254799999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-27472031.30445888</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-27471478.29215888</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-27721677.31175888</v>
       </c>
       <c r="H268">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-27261767.10145888</v>
       </c>
       <c r="H269">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-27196529.03875888</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-27196529.03875888</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-27719764.90515888</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-27579779.65605888</v>
       </c>
       <c r="H273">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-27502210.75985888</v>
       </c>
       <c r="H274">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-27105641.75045888</v>
       </c>
       <c r="H275">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-27697790.99025888</v>
       </c>
       <c r="H276">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-27495319.11735888</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-27198101.64315888</v>
       </c>
       <c r="H278">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-27231601.64315888</v>
       </c>
       <c r="H279">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-27775015.81705888</v>
       </c>
       <c r="H280">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-28185065.64845888</v>
       </c>
       <c r="H281">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-28185065.64845888</v>
       </c>
       <c r="H282">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-28163995.22665888</v>
       </c>
       <c r="H283">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-27647364.53845888</v>
       </c>
       <c r="H284">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-27647364.53845888</v>
       </c>
       <c r="H285">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-28181080.89045888</v>
       </c>
       <c r="H286">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H287">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H288">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-27936352.80375888</v>
       </c>
       <c r="H289">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>-27898458.87345888</v>
       </c>
       <c r="H290">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>-28124671.05505888</v>
       </c>
       <c r="H291">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>-28106529.03275888</v>
       </c>
       <c r="H292">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>-28117302.50535888</v>
       </c>
       <c r="H293">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>-28319919.63385888</v>
       </c>
       <c r="H294">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>-28818308.69125888</v>
       </c>
       <c r="H295">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>-28801431.37365888</v>
       </c>
       <c r="H296">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-29009766.50665888</v>
       </c>
       <c r="H297">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-28739353.04645888</v>
       </c>
       <c r="H298">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-28728402.37045888</v>
       </c>
       <c r="H299">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H300">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H301">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-28656916.12305888</v>
       </c>
       <c r="H302">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-28831991.41365888</v>
       </c>
       <c r="H303">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-28541394.72685888</v>
       </c>
       <c r="H304">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H305">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H306">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>-28550334.02865889</v>
       </c>
       <c r="H307">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-28591892.38615889</v>
       </c>
       <c r="H308">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-29071516.97335889</v>
       </c>
       <c r="H309">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-29084117.76065889</v>
       </c>
       <c r="H310">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-29081617.76065889</v>
       </c>
       <c r="H311">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-29259096.37445889</v>
       </c>
       <c r="H312">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-28945715.24935889</v>
       </c>
       <c r="H313">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>-28943626.24935889</v>
       </c>
       <c r="H314">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>-28943626.24935889</v>
       </c>
       <c r="H315">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>-29153974.35635889</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>-29369622.72245889</v>
       </c>
       <c r="H317">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>-29378105.82465889</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-29144349.60475889</v>
       </c>
       <c r="H319">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-28900703.09785889</v>
       </c>
       <c r="H322">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-31555210.48515888</v>
       </c>
       <c r="H372">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-31406706.91975888</v>
       </c>
       <c r="H374">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-31652098.64975888</v>
       </c>
       <c r="H375">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-31652098.64975888</v>
       </c>
       <c r="H376">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-31383688.88075888</v>
       </c>
       <c r="H377">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-31753303.12465888</v>
       </c>
       <c r="H378">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-31742478.40025888</v>
       </c>
       <c r="H379">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-31592363.10645888</v>
       </c>
       <c r="H380">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-31590398.42215888</v>
       </c>
       <c r="H381">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-31415574.76765888</v>
       </c>
       <c r="H382">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-32509348.24028429</v>
       </c>
       <c r="H390">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-32529410.87688986</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-33149913.35808986</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-32768264.28358986</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-33171701.21698986</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-33659938.82998987</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-31852292.47366206</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-31643835.04734264</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-31540092.04734264</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-32530028.07554264</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-32530028.07554264</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-32281646.12524264</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-32268618.94124264</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-31855885.44014264</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-33167356.21203602</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-32972170.71463602</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-32969825.86233602</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-32639934.75633602</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-33321590.86643602</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-33605690.63033602</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-33146981.54763602</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-33136328.85243602</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-33136328.85243602</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-32776755.89693601</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-32381594.05203601</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-14804655.86332886</v>
       </c>
       <c r="H854">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-14364635.22882886</v>
       </c>
       <c r="H855">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-14946675.83512886</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-19444459.78082886</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-19112188.11142886</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-21193155.70752886</v>
       </c>
       <c r="H859">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-20900982.68262886</v>
       </c>
       <c r="H860">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-20650905.25572886</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-22663554.89822886</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-21893173.25508298</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-22246929.87178298</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-21120290.33258298</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-20582955.87118298</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-15883439.07218298</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-23219518.72608298</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-25347568.11285798</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-25068857.74015798</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-23775118.39398096</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-23534990.36418096</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-25236595.2810398</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-23308079.4777398</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-25330575.8637398</v>
       </c>
       <c r="H890">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-26495421.1608398</v>
       </c>
       <c r="H891">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-26124207.86782219</v>
       </c>
       <c r="H894">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-24521527.99669514</v>
       </c>
       <c r="H988">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-23774678.70509514</v>
       </c>
       <c r="H989">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H991">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="992" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-11 XSR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-11 XSR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-3302506.324999999</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H287">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-28555769.01495888</v>
       </c>
       <c r="H288">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-27936352.80375888</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>-29009766.50665888</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>-28739353.04645888</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-28728402.37045888</v>
       </c>
       <c r="H299">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-28658766.40005888</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-28656916.12305888</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-28831991.41365888</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>-28541394.72685888</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>-28538062.29095889</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-29144349.60475889</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-32529410.87688986</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-33149913.35808986</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-32768264.28358986</v>
       </c>
       <c r="H401">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-33171701.21698986</v>
       </c>
       <c r="H402">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-33659938.82998987</v>
       </c>
       <c r="H403">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-31855885.44014264</v>
       </c>
       <c r="H431">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-33167356.21203602</v>
       </c>
       <c r="H443">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-32972170.71463602</v>
       </c>
       <c r="H444">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-33287423.62223602</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-33181432.45203602</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-32777092.47053602</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -22596,7 +22596,7 @@
         <v>-14804655.86332886</v>
       </c>
       <c r="H854">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="855" spans="1:8">
@@ -22622,7 +22622,7 @@
         <v>-14364635.22882886</v>
       </c>
       <c r="H855">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="856" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-14946675.83512886</v>
       </c>
       <c r="H856">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-19444459.78082886</v>
       </c>
       <c r="H857">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-19112188.11142886</v>
       </c>
       <c r="H858">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22726,7 +22726,7 @@
         <v>-21193155.70752886</v>
       </c>
       <c r="H859">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="860" spans="1:8">
@@ -22752,7 +22752,7 @@
         <v>-20900982.68262886</v>
       </c>
       <c r="H860">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="861" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-20650905.25572886</v>
       </c>
       <c r="H861">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-22663554.89822886</v>
       </c>
       <c r="H864">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-21893173.25508298</v>
       </c>
       <c r="H874">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-22246929.87178298</v>
       </c>
       <c r="H875">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-21120290.33258298</v>
       </c>
       <c r="H876">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-20582955.87118298</v>
       </c>
       <c r="H877">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-15883439.07218298</v>
       </c>
       <c r="H878">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-25068857.74015798</v>
       </c>
       <c r="H882">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-23775118.39398096</v>
       </c>
       <c r="H883">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-23534990.36418096</v>
       </c>
       <c r="H884">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-25236595.2810398</v>
       </c>
       <c r="H885">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-25713043.7055398</v>
       </c>
       <c r="H886">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-23308079.4777398</v>
       </c>
       <c r="H889">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-26124207.86782219</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -25872,7 +25872,7 @@
         <v>-24988580.57145831</v>
       </c>
       <c r="H980">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="981" spans="1:8">
@@ -25898,7 +25898,7 @@
         <v>-24988580.57145831</v>
       </c>
       <c r="H981">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="982" spans="1:8">
@@ -25924,7 +25924,7 @@
         <v>-23825727.98945831</v>
       </c>
       <c r="H982">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="983" spans="1:8">
@@ -25950,7 +25950,7 @@
         <v>-25034553.39495831</v>
       </c>
       <c r="H983">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="984" spans="1:8">
@@ -25976,7 +25976,7 @@
         <v>-23967575.93745831</v>
       </c>
       <c r="H984">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="985" spans="1:8">
@@ -26002,7 +26002,7 @@
         <v>-24486818.52149514</v>
       </c>
       <c r="H985">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="986" spans="1:8">
@@ -26028,7 +26028,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H986">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="987" spans="1:8">
@@ -26054,7 +26054,7 @@
         <v>-23871489.31639514</v>
       </c>
       <c r="H987">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="988" spans="1:8">
@@ -26080,7 +26080,7 @@
         <v>-24521527.99669514</v>
       </c>
       <c r="H988">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="989" spans="1:8">
@@ -26106,7 +26106,7 @@
         <v>-23774678.70509514</v>
       </c>
       <c r="H989">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="990" spans="1:8">
@@ -26132,7 +26132,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H990">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="991" spans="1:8">
@@ -26158,7 +26158,7 @@
         <v>-24418769.33469514</v>
       </c>
       <c r="H991">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="992" spans="1:8">
@@ -26184,7 +26184,7 @@
         <v>-24695628.97509514</v>
       </c>
       <c r="H992">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="993" spans="1:8">
@@ -26210,7 +26210,7 @@
         <v>-24740058.20179514</v>
       </c>
       <c r="H993">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="994" spans="1:8">
